--- a/testfile_new/test1.xlsx
+++ b/testfile_new/test1.xlsx
@@ -394,7 +394,7 @@
         <v>名字</v>
       </c>
       <c r="B1" t="str">
-        <v>值</v>
+        <v>日期</v>
       </c>
       <c r="C1" t="str">
         <v>总计</v>

--- a/testfile_new/test1.xlsx
+++ b/testfile_new/test1.xlsx
@@ -10,12 +10,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -379,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,29 +399,139 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>T3</v>
+        <v>刘玺</v>
       </c>
       <c r="B2" t="str">
-        <v>1,3,4,5,9,10,11,13,14,15,17,18,19,21,22,23,25,26,27,29,30,31,</v>
+        <v>1,2,4,5,7,8,9,11,12,14,15,17,18,20,21,23,24,25,30,31,</v>
       </c>
       <c r="C2" t="str">
-        <v>共22</v>
+        <v>共34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>T5</v>
+        <v>胡聪聪</v>
       </c>
       <c r="B3" t="str">
-        <v>1,3,4,5,9,10,11,13,14,15,17,18,19,21,22,23,25,26,27,29,30,31,</v>
+        <v>1,3,4,6,7,9,10,12,13,15,16,19,21,22,23,25,26,28,29,</v>
       </c>
       <c r="C3" t="str">
+        <v>共38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>马文星</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1,2,4,5,6,12,13,15,16,18,19,21,22,24,25,27,28,30,31,</v>
+      </c>
+      <c r="C4" t="str">
+        <v>共38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>杨阳</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8,9,10,</v>
+      </c>
+      <c r="C5" t="str">
+        <v>共6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>蒋鹏</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1,2,3,4,5,7,8,10,11,13,14,16,17,19,20,22,23,24,25,26,28,29,31,</v>
+      </c>
+      <c r="C6" t="str">
+        <v>共34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>陈乃翁</v>
+      </c>
+      <c r="B7" t="str">
+        <v>26,27,28,</v>
+      </c>
+      <c r="C7" t="str">
+        <v>共3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>李涛涛</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1,2,4,5,7,8,10,11,13,14,16,17,19,20,22,23,24,25,26,27,28,29,30,</v>
+      </c>
+      <c r="C8" t="str">
+        <v>共39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>王春生</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4,5,7,8,10,11,13,14,16,17,19,20,22,23,25,26,28,29,31,</v>
+      </c>
+      <c r="C9" t="str">
+        <v>共26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>芮伟棠</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1,2,3,5,6,8,9,11,13,14,16,17,19,20,22,23,25,26,</v>
+      </c>
+      <c r="C10" t="str">
         <v>共22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>罗电雷</v>
+      </c>
+      <c r="B11" t="str">
+        <v>12,14,15,17,18,20,21,23,28,29,31,</v>
+      </c>
+      <c r="C11" t="str">
+        <v>共11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>沈雁飞</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1,2,3,5,6,8,9,10,11,13,14,16,17,18,19,20,22,23,25,26,28,29,</v>
+      </c>
+      <c r="C12" t="str">
+        <v>共27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>讲师</v>
+      </c>
+      <c r="B13" t="str">
+        <v>25,26,28,29,31,</v>
+      </c>
+      <c r="C13" t="str">
+        <v>共5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>